--- a/Photoo/schedule.xlsx
+++ b/Photoo/schedule.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,12 +48,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,112 +419,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIF2GQDPdDsEu7MdRGrmQXXQbrenmEUAAK9LAACxFsgSD5l8i7vyPHbLgQ.png</t>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIHb2QlP_l8zE0yulZUFWRrMZ2EllHbAAL9JQAC7g0xSalMZHeE00jrLwQ.png</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B1" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
         <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIF5mQDRJ1UZQott4SvJqTzHy8-7CU5AALXLAACxFsgSFVdwxHOZviZLgQ.jpg</t>
+          <t>2023-10-11</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIF-mQfIqE_vMQi1MzTHLqrpNUTRE5lAAL7LwACxyf4SEEp1HNfDcEBLwQ.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGCmQfIzeDboyiHI8qJqB1ZcWZf64TAAIJMAACxyf4SCBu4oJ_gx5lLwQ.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGHmQfKWhOdElD2oERTV2bHDTWOQKeAAJqMAACxyf4SPQGYD0E-jQULwQ.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGMGQfMCyfOH621Hx9LgnkcnGDzoZ0AAKZMAACxyf4SArmqtQkjk24LwQ.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGOWQfMWCxi0ecNjF-rpArRY-181rdAAKuMAACxyf4SPB9EfrH_oAhLwQ.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGiGQhzOHNim25Pi3s7WKyQHDiYbpYAAJsMAACY1UQSTMB5oJlKnrOLwQ.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGpWQjFL39EQocZCQFcm228AdZK2caAAJ6LgACY1UYScseQ_EkVTx2LwQ.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIGxGQjGSxvozSJQ7JlCJgAAdsKrezkIAACui4AAmNVGElEdnIwUixg0i8E.png</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIG1mQjHCDPUaPYRG0zXSU_sSZQPhPsAAL2LgACY1UYScOgiyRf9ztvLwQ.png</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0.53125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Photoo/schedule.xlsx
+++ b/Photoo/schedule.xlsx
@@ -1,36 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C96DB0-4C68-414D-8519-EE8F7814D38F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>02-04-2023</t>
+  </si>
+  <si>
+    <t>02-09-2023</t>
+  </si>
+  <si>
+    <t>17-02-2023</t>
+  </si>
+  <si>
+    <t>20-02-2023</t>
+  </si>
+  <si>
+    <t>01-04-2023</t>
+  </si>
+  <si>
+    <t>06-04-2023</t>
+  </si>
+  <si>
+    <t>10-04-2023</t>
+  </si>
+  <si>
+    <t>15-04-2023</t>
+  </si>
+  <si>
+    <t>03-05-2023</t>
+  </si>
+  <si>
+    <t>03-04-2023</t>
+  </si>
+  <si>
+    <t>17-02-2025</t>
+  </si>
+  <si>
+    <t>29-03-2025</t>
+  </si>
+  <si>
+    <t>02-06-2024</t>
+  </si>
+  <si>
+    <t>01-04-2024</t>
+  </si>
+  <si>
+    <t>20-05-2023</t>
+  </si>
+  <si>
+    <t>25-04-2023</t>
+  </si>
+  <si>
+    <t>01-10-2023</t>
+  </si>
+  <si>
+    <t>21-10-2023</t>
+  </si>
+  <si>
+    <t>21-06-2023</t>
+  </si>
+  <si>
+    <t>21-04-2023</t>
+  </si>
+  <si>
+    <t>10-11-2023</t>
+  </si>
+  <si>
+    <t>11-10-2023</t>
+  </si>
+  <si>
+    <t>12-05-2023</t>
+  </si>
+  <si>
+    <t>12-06-2023</t>
+  </si>
+  <si>
+    <t>02-01-2023</t>
+  </si>
+  <si>
+    <t>30-03-2023</t>
+  </si>
+  <si>
+    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAILKGQpPnNf4sxmaJkXGnzTaoMySUT4AAKVJAACcAtISaYz3HiVUW-DLwQ.PNG</t>
+  </si>
+  <si>
+    <t>01-05-2023</t>
+  </si>
+  <si>
+    <t>21-05-2023</t>
+  </si>
+  <si>
+    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAILTmQpQnB46-o4Dg3xcjmgOLtpb6FEAAKZKgACWho5SZWBw2dfN7vKLwQ.JPG</t>
+  </si>
+  <si>
+    <t>18-05-2023</t>
+  </si>
+  <si>
+    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAILZGQpRDR7Briwkj4clrkBbRan-nMdAAKoJAACcAtISc-EWooU-tjwLwQ.PNG</t>
+  </si>
+  <si>
+    <t>10-07-2023</t>
+  </si>
+  <si>
+    <t>20-07-2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,84 +165,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,40 +471,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIHb2QlP_l8zE0yulZUFWRrMZ2EllHbAAL9JQAC7g0xSalMZHeE00jrLwQ.png</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45070</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45048</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45079</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45109</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45109</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Photoo/schedule.xlsx
+++ b/Photoo/schedule.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15825" windowHeight="7680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,12 +47,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,10 +416,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -515,6 +517,152 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIMZGQs6CVXsLgboxZ64BWTe_qNn-paAAL_MQAC4k5pSXsAAfnuu0Qn7y8E.PNG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05-05-2023</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIMgGQs8s8HA1XJLlJf4ky1HQABAbE1-AACDjIAAuJOaUnadJQGkz79Si8E.PNG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01-05-2023</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIMkmQtAcmwXuZ8chgZ1vx-3kTGtfmLAAJdMgAC4k5pSSCeDArNh30hLwQ.PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIMn2QugT1-0AuB0GvDCRs88jcAAU1OyQACmiYAAuJOeUnlDzXyCCEcNi8E.PNG</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIMtWQugf8oRflLgTNUjcrcPuIPVGBKAAKcJgAC4k55SXQ8mcE6rvePLwQ.PNG</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>06-03-2023</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20-03-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIM-mQujSGg0JGjjs4-V99BQC53j5UOAALXJgAC4k55SXpPlOZejRnzLwQ.PNG</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25-02-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAINPGQu0M5VmlJ95tFpnvI5d7r4etshAAJjKgACCrZ5SS4-dgW3gZJQLwQ.PNG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18-03-2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Photoo/schedule.xlsx
+++ b/Photoo/schedule.xlsx
@@ -1,106 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673B11B-BE61-4405-9420-7D8B341BA30D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15825" windowHeight="7680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
-  </si>
-  <si>
-    <t>залупа</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPNWQwEziZNz_qDesBpsJffvbgYSVNAAI8KQACCraBSWeu7nsdP680LwQ.PNG</t>
-  </si>
-  <si>
-    <t>Залупа коня</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPOmQwE5RUNrOidbE1nODSmURKUjtAAAI_KQACCraBSXVmvLx9c86hLwQ.JPG</t>
-  </si>
-  <si>
-    <t>-1001764282774</t>
-  </si>
-  <si>
-    <t>хаю хай</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPTmQwFE4G7aZuAatKgAefPTn8N0zjAAJDKQACCraBSUSECiwi3prmLwQ.JPG</t>
-  </si>
-  <si>
-    <t>хай хай</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPYmQwFS5lYZ86OWxh3THulBv_KSZBAAJJKQACCraBSd3y0ZBqQqlCLwQ.PNG</t>
-  </si>
-  <si>
-    <t>Я крутой</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPe2QwFuJfnwTU-dMqYh-tocgClW38AAJXKQACCraBSeKQFx6cDtupLwQ.PNG</t>
-  </si>
-  <si>
-    <t>Никиииииитаааа, Эта хрень работаетттт</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPt2QwLM5LCBGGvGJ004ObdQYu6CxaAAL6KQACCraBSV1cGkF_DZHLLwQ.PNG</t>
-  </si>
-  <si>
-    <t>хуй</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.jpg</t>
-  </si>
-  <si>
-    <t>👋 выложить пост</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.PNG</t>
-  </si>
-  <si>
-    <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
-  </si>
-  <si>
-    <t>[eq</t>
-  </si>
-  <si>
-    <t>жопа</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,22 +45,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,228 +408,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>107</v>
-      </c>
-      <c r="I1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>125</v>
+      </c>
+      <c r="I1" t="n">
         <v>-1001764282774</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>залупа</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPNWQwEziZNz_qDesBpsJffvbgYSVNAAI8KQACCraBSWeu7nsdP680LwQ.PNG</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>-1001764282774</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Залупа коня</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPOmQwE5RUNrOidbE1nODSmURKUjtAAAI_KQACCraBSXVmvLx9c86hLwQ.JPG</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-1001764282774</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>хаю хай</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPTmQwFE4G7aZuAatKgAefPTn8N0zjAAJDKQACCraBSUSECiwi3prmLwQ.JPG</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-1001764282774</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>хай хай</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPYmQwFS5lYZ86OWxh3THulBv_KSZBAAJJKQACCraBSd3y0ZBqQqlCLwQ.PNG</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-1001764282774</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Я крутой</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPe2QwFuJfnwTU-dMqYh-tocgClW38AAJXKQACCraBSeKQFx6cDtupLwQ.PNG</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>102</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-1001764282774</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Никиииииитаааа, Эта хрень работаетттт</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/BQACAgIAAxkBAAIPt2QwLM5LCBGGvGJ004ObdQYu6CxaAAL6KQACCraBSV1cGkF_DZHLLwQ.PNG</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>-1001764282774</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.jpg</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>103</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>-1001764282774</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>👋 выложить пост</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>👋 выложить пост</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>👋 выложить пост</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>👋 выложить пост</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[eq</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>жопа</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>108</v>
       </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>хуй</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtccxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>109</v>
       </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>залупа</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADkMgxGwq2gUl-.PNG</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>110</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Кал говна</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADrMcxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0.5097222222222222</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADtsUxG8AbiEl-.PNG</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>hgjfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADuMUxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="H26" t="n">
+        <v>111</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ujdyj</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADvcUxG8AbiEl-.PNG</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0.1770833333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>112</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-1001764282774</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>pinas</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADuMUxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0.2430555555555556</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>жопа</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADuMUxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>hfghjk</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADuMUxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fgdhg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADuMUxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>116</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>kjhg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADw8UxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>117</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>lf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADyMUxG8AbiEl9.PNG</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>126</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>dfghj</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Photoo/schedule.xlsx
+++ b/Photoo/schedule.xlsx
@@ -413,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -431,14 +431,14 @@
         </is>
       </c>
       <c r="H1" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="I1" t="n">
         <v>-1001764282774</v>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>залупа</t>
+          <t>||*пися*||</t>
         </is>
       </c>
     </row>
@@ -895,6 +895,193 @@
       <c r="J33" t="inlineStr">
         <is>
           <t>dfghj</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADjscxGwq2gUl9.PNG</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="H34" t="n">
+        <v>128</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>это я да</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQAD0ccxG8AbiEl-.PNG</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>31-08-2023</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>56</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>06-10-2024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>131</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Мику</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADx8YxG2sTmEl9.PNG</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10-10-2023</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20-10-2023</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Я гей</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADx8YxG2sTmEl9.PNG</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>138</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>sdfghj</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQAD4MYxG2sTmEl9.PNG</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>asdghf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQAD4MYxG2sTmEl9.PNG</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>пися</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQAD4MYxG2sTmEl9.PNG</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>141</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>||пися||</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C:\Users\Александр\Desktop\Александр\боты\prostotit_bot\Photoo/AQADSsQxG3Z6mUl-.PNG</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>154</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>photo</t>
         </is>
       </c>
     </row>
